--- a/teaching/traditional_assets/database/data/malta/malta_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/malta/malta_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00365</v>
+        <v>-0.0298</v>
       </c>
       <c r="E2">
-        <v>0.0215</v>
+        <v>-0.247</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001947477086961217</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001346936615301933</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>130.9</v>
+        <v>48.59999999999999</v>
       </c>
       <c r="L2">
-        <v>0.2596707002578854</v>
+        <v>0.1180184555609519</v>
       </c>
       <c r="M2">
-        <v>15.5</v>
+        <v>21.4102</v>
       </c>
       <c r="N2">
-        <v>0.01011023416606875</v>
+        <v>0.01991276041666666</v>
       </c>
       <c r="O2">
-        <v>0.1184110007639419</v>
+        <v>0.4405390946502058</v>
       </c>
       <c r="P2">
-        <v>15.5</v>
+        <v>21.4102</v>
       </c>
       <c r="Q2">
-        <v>0.01011023416606875</v>
+        <v>0.01991276041666666</v>
       </c>
       <c r="R2">
-        <v>0.1184110007639419</v>
+        <v>0.4405390946502058</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>124.9</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.081468919183354</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.05955056179775281</v>
+        <v>0.02504165696441583</v>
       </c>
       <c r="X2">
-        <v>0.05248366344354609</v>
+        <v>0.04129264707282946</v>
       </c>
       <c r="Y2">
-        <v>0.007066898354206722</v>
+        <v>-0.01625099010841363</v>
       </c>
       <c r="Z2">
-        <v>0.1681613386410377</v>
+        <v>0.1881310247156106</v>
       </c>
       <c r="AA2">
-        <v>0.0005181744140251849</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04367045741526562</v>
+        <v>0.03668131549642131</v>
       </c>
       <c r="AC2">
-        <v>-0.04314060737831321</v>
+        <v>-0.03668131549642131</v>
       </c>
       <c r="AD2">
-        <v>849.4000000000001</v>
+        <v>373.5</v>
       </c>
       <c r="AE2">
-        <v>6.016384002314252</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>855.4163840023143</v>
+        <v>373.5</v>
       </c>
       <c r="AG2">
-        <v>730.5163840023143</v>
+        <v>373.5</v>
       </c>
       <c r="AH2">
-        <v>0.3581371221615558</v>
+        <v>0.2578173534893353</v>
       </c>
       <c r="AI2">
-        <v>0.2994928496291481</v>
+        <v>0.1775274490232426</v>
       </c>
       <c r="AJ2">
-        <v>0.3227209297322207</v>
+        <v>0.2578173534893353</v>
       </c>
       <c r="AK2">
-        <v>0.2674594522557132</v>
+        <v>0.1775274490232426</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>388.7414187643021</v>
-      </c>
-      <c r="AP2">
-        <v>334.3324411909906</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FIMBank p.l.c. (MTSE:FIM)</t>
+          <t>HSBC Bank Malta p.l.c. (MTSE:HSB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0344</v>
+        <v>-0.0298</v>
       </c>
       <c r="E3">
-        <v>0.153</v>
+        <v>-0.247</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,100 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009609120654368353</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007145243563504673</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L3">
-        <v>0.2213740458015267</v>
+        <v>0.05958904109589041</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>4.48</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01129316864129065</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.5149425287356323</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>4.48</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01129316864129065</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.5149425287356323</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>124.9</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3984051036682616</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.04204421891989851</v>
+        <v>0.01619508562918838</v>
       </c>
       <c r="X3">
-        <v>0.06240553213147572</v>
+        <v>0.03914086614870237</v>
       </c>
       <c r="Y3">
-        <v>-0.02036131321157721</v>
+        <v>-0.02294578051951399</v>
       </c>
       <c r="Z3">
-        <v>0.07252018904881466</v>
+        <v>0.2378237497963837</v>
       </c>
       <c r="AA3">
-        <v>0.0005181744140251849</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04086107986343179</v>
+        <v>0.03566079884303562</v>
       </c>
       <c r="AC3">
-        <v>-0.04034290544940661</v>
+        <v>-0.03566079884303562</v>
       </c>
       <c r="AD3">
-        <v>375.1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AE3">
-        <v>1.757410388555491</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>376.8574103885555</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AG3">
-        <v>251.9574103885555</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.5458873979153029</v>
+        <v>0.1597119254395255</v>
       </c>
       <c r="AI3">
-        <v>0.5683631680818029</v>
+        <v>0.1250207262477201</v>
       </c>
       <c r="AJ3">
-        <v>0.4455815871533496</v>
+        <v>0.1597119254395255</v>
       </c>
       <c r="AK3">
-        <v>0.4681853404316026</v>
+        <v>0.1250207262477201</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>438.7134502923977</v>
-      </c>
-      <c r="AP3">
-        <v>294.687029694217</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSBC Bank Malta p.l.c. (MTSE:HSB)</t>
+          <t>Bank of Valletta p.l.c. (MTSE:BOV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,12 +834,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.0271</v>
-      </c>
-      <c r="E4">
-        <v>-0.11</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -856,34 +841,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002803078999110481</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001808071240805544</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>31.8</v>
+        <v>39.9</v>
       </c>
       <c r="L4">
-        <v>0.1864009378663541</v>
+        <v>0.1501128668171557</v>
       </c>
       <c r="M4">
-        <v>15.5</v>
+        <v>16.9302</v>
       </c>
       <c r="N4">
-        <v>0.02950133231823373</v>
+        <v>0.02495239498894621</v>
       </c>
       <c r="O4">
-        <v>0.4874213836477987</v>
+        <v>0.4243157894736842</v>
       </c>
       <c r="P4">
-        <v>15.5</v>
+        <v>16.9302</v>
       </c>
       <c r="Q4">
-        <v>0.02950133231823373</v>
+        <v>0.02495239498894621</v>
       </c>
       <c r="R4">
-        <v>0.4874213836477987</v>
+        <v>0.4243157894736842</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,173 +883,54 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.05955056179775281</v>
+        <v>0.03388822829964327</v>
       </c>
       <c r="X4">
-        <v>0.04588346469599426</v>
+        <v>0.04344442799695655</v>
       </c>
       <c r="Y4">
-        <v>0.01366709710175855</v>
+        <v>-0.009556199697313278</v>
       </c>
       <c r="Z4">
-        <v>0.2930471017924854</v>
+        <v>0.1687619047619048</v>
       </c>
       <c r="AA4">
-        <v>0.0005298500369524075</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04367045741526562</v>
+        <v>0.03770183214980699</v>
       </c>
       <c r="AC4">
-        <v>-0.04314060737831321</v>
+        <v>-0.03770183214980699</v>
       </c>
       <c r="AD4">
-        <v>76.7</v>
+        <v>298.1</v>
       </c>
       <c r="AE4">
-        <v>4.25897361375876</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>80.95897361375876</v>
+        <v>298.1</v>
       </c>
       <c r="AG4">
-        <v>80.95897361375876</v>
+        <v>298.1</v>
       </c>
       <c r="AH4">
-        <v>0.1335165753897598</v>
+        <v>0.3052426786811386</v>
       </c>
       <c r="AI4">
-        <v>0.1309678853976226</v>
+        <v>0.1986273987206823</v>
       </c>
       <c r="AJ4">
-        <v>0.1335165753897598</v>
+        <v>0.3052426786811386</v>
       </c>
       <c r="AK4">
-        <v>0.1309678853976226</v>
+        <v>0.1986273987206823</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>57.66917293233082</v>
-      </c>
-      <c r="AP4">
-        <v>60.87140873214944</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bank of Valletta p.l.c. (MTSE:BOV)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>87.5</v>
-      </c>
-      <c r="L5">
-        <v>0.3112771255780861</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>-0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>-0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.07931472081218274</v>
-      </c>
-      <c r="X5">
-        <v>0.05248366344354609</v>
-      </c>
-      <c r="Y5">
-        <v>0.02683105736863665</v>
-      </c>
-      <c r="Z5">
-        <v>0.1660366213821619</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.04432810215505914</v>
-      </c>
-      <c r="AC5">
-        <v>-0.04432810215505914</v>
-      </c>
-      <c r="AD5">
-        <v>397.6</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>397.6</v>
-      </c>
-      <c r="AG5">
-        <v>397.6</v>
-      </c>
-      <c r="AH5">
-        <v>0.3641692617695548</v>
-      </c>
-      <c r="AI5">
-        <v>0.2524444444444445</v>
-      </c>
-      <c r="AJ5">
-        <v>0.3641692617695548</v>
-      </c>
-      <c r="AK5">
-        <v>0.2524444444444445</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
         <v>0</v>
       </c>
     </row>
